--- a/TAP_POM_Framework/data/TC0036.xlsx
+++ b/TAP_POM_Framework/data/TC0036.xlsx
@@ -54,16 +54,16 @@
     <t>sample456</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Avant Hy</t>
-  </si>
-  <si>
     <t>282-R9</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Avant</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,19 +440,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
